--- a/Symphony/2021/SEPTEMBER/All Details/23.09.2021/MC Bank Statement September-2021.xlsx
+++ b/Symphony/2021/SEPTEMBER/All Details/23.09.2021/MC Bank Statement September-2021.xlsx
@@ -202,7 +202,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="250">
   <si>
     <t>Date</t>
   </si>
@@ -949,6 +949,9 @@
   </si>
   <si>
     <t>chaskoir</t>
+  </si>
+  <si>
+    <t>bKash Jafor(-)</t>
   </si>
 </sst>
 </file>
@@ -2311,7 +2314,7 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="360">
+  <cellXfs count="361">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3177,9 +3180,6 @@
     <xf numFmtId="1" fontId="39" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="35" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3209,6 +3209,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="38" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3352,6 +3355,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="44" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="36" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -9672,11 +9678,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A3:Q3"/>
@@ -9691,6 +9692,11 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -10052,7 +10058,7 @@
       <c r="F4" s="263" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="311" t="s">
+      <c r="G4" s="310" t="s">
         <v>213</v>
       </c>
       <c r="H4" s="77"/>
@@ -34314,8 +34320,8 @@
   </sheetPr>
   <dimension ref="A1:AC220"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H25" sqref="G25:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -34457,14 +34463,14 @@
       <c r="A6" s="45" t="s">
         <v>183</v>
       </c>
-      <c r="B6" s="307">
+      <c r="B6" s="306">
         <v>8000000</v>
       </c>
       <c r="C6" s="46"/>
       <c r="D6" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="302">
+      <c r="E6" s="301">
         <v>4637656.1734523801</v>
       </c>
       <c r="F6" s="41"/>
@@ -34500,14 +34506,14 @@
       <c r="A7" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="307">
+      <c r="B7" s="306">
         <v>349661.81499999994</v>
       </c>
       <c r="C7" s="48"/>
       <c r="D7" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="302">
+      <c r="E7" s="301">
         <v>480484</v>
       </c>
       <c r="F7" s="8"/>
@@ -34537,13 +34543,13 @@
     </row>
     <row r="8" spans="1:29" ht="21.75">
       <c r="A8" s="45"/>
-      <c r="B8" s="307"/>
+      <c r="B8" s="306"/>
       <c r="C8" s="48"/>
       <c r="D8" s="146" t="s">
         <v>82</v>
       </c>
-      <c r="E8" s="303">
-        <v>474351.64154761937</v>
+      <c r="E8" s="302">
+        <v>24351.641547619365</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="281"/>
@@ -34572,10 +34578,10 @@
     </row>
     <row r="9" spans="1:29" ht="21.75">
       <c r="A9" s="45"/>
-      <c r="B9" s="307"/>
+      <c r="B9" s="306"/>
       <c r="C9" s="46"/>
       <c r="D9" s="285"/>
-      <c r="E9" s="304"/>
+      <c r="E9" s="303"/>
       <c r="F9" s="8"/>
       <c r="G9" s="276"/>
       <c r="H9" s="275"/>
@@ -34605,12 +34611,12 @@
       <c r="A10" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="307">
+      <c r="B10" s="306">
         <v>51830</v>
       </c>
       <c r="C10" s="47"/>
       <c r="D10" s="146"/>
-      <c r="E10" s="305"/>
+      <c r="E10" s="304"/>
       <c r="F10" s="8"/>
       <c r="I10" s="274"/>
       <c r="J10" s="8"/>
@@ -34638,14 +34644,14 @@
       <c r="A11" s="45" t="s">
         <v>167</v>
       </c>
-      <c r="B11" s="307">
+      <c r="B11" s="306">
         <v>0</v>
       </c>
       <c r="C11" s="47"/>
       <c r="D11" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="302">
+      <c r="E11" s="301">
         <v>1969230</v>
       </c>
       <c r="F11" s="8"/>
@@ -34677,7 +34683,7 @@
       <c r="A12" s="273" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="308">
+      <c r="B12" s="307">
         <f>B7+B8-B10-B11</f>
         <v>297831.81499999994</v>
       </c>
@@ -34685,7 +34691,7 @@
       <c r="D12" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="E12" s="302">
+      <c r="E12" s="301">
         <v>103010</v>
       </c>
       <c r="F12" s="8"/>
@@ -34715,12 +34721,12 @@
     </row>
     <row r="13" spans="1:29" ht="21.75">
       <c r="A13" s="136"/>
-      <c r="B13" s="309"/>
+      <c r="B13" s="308"/>
       <c r="C13" s="47"/>
       <c r="D13" s="46" t="s">
         <v>230</v>
       </c>
-      <c r="E13" s="306">
+      <c r="E13" s="305">
         <v>633100</v>
       </c>
       <c r="F13" s="8" t="s">
@@ -34755,11 +34761,15 @@
       <c r="AC13" s="8"/>
     </row>
     <row r="14" spans="1:29" ht="21.75">
-      <c r="A14" s="301"/>
-      <c r="B14" s="307"/>
+      <c r="A14" s="311" t="s">
+        <v>249</v>
+      </c>
+      <c r="B14" s="360">
+        <v>450000</v>
+      </c>
       <c r="C14" s="47"/>
       <c r="D14" s="147"/>
-      <c r="E14" s="305"/>
+      <c r="E14" s="304"/>
       <c r="F14" s="8"/>
       <c r="G14" s="279"/>
       <c r="H14" s="280"/>
@@ -34789,10 +34799,10 @@
     </row>
     <row r="15" spans="1:29" ht="21.75">
       <c r="A15" s="45"/>
-      <c r="B15" s="310"/>
+      <c r="B15" s="309"/>
       <c r="C15" s="47"/>
       <c r="D15" s="147"/>
-      <c r="E15" s="305"/>
+      <c r="E15" s="304"/>
       <c r="F15" s="5"/>
       <c r="G15" s="13"/>
       <c r="I15" s="8"/>
@@ -34823,17 +34833,17 @@
       <c r="A16" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="310">
+      <c r="B16" s="309">
         <f>B6+B7+B8-B10-B14-B11-B15</f>
-        <v>8297831.8149999995</v>
+        <v>7847831.8149999995</v>
       </c>
       <c r="C16" s="47"/>
       <c r="D16" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="306">
+      <c r="E16" s="305">
         <f>E6+E7+E8+E11+E12+E13</f>
-        <v>8297831.8149999995</v>
+        <v>7847831.8149999995</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="129">
@@ -35138,7 +35148,7 @@
         <v>232</v>
       </c>
       <c r="E24" s="60">
-        <v>24000</v>
+        <v>28000</v>
       </c>
       <c r="G24" s="19"/>
       <c r="H24" s="8"/>
@@ -35169,7 +35179,7 @@
         <v>18</v>
       </c>
       <c r="B25" s="142">
-        <v>464500</v>
+        <v>404500</v>
       </c>
       <c r="C25" s="143"/>
       <c r="D25" s="51" t="s">
